--- a/FA_Master_21C.xlsx
+++ b/FA_Master_21C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RajDivekar\Desktop\finnance_New\Fixed Asset\Fixed Asset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Backup_IGA_Master\UIAF_Selenium_IGA\venv\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CC6D37-3F63-4AF6-B1DA-AEE332927898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B2A711-1E19-4616-9561-BE266761C595}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1C89B8F0-8379-4006-98D3-7E08A71BEBF4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C89B8F0-8379-4006-98D3-7E08A71BEBF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="190">
   <si>
     <t>SL.NO</t>
   </si>
@@ -100,6 +100,9 @@
     <t>NA</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>ManageTransactnAssetInvoice</t>
   </si>
   <si>
@@ -253,9 +256,6 @@
     <t>AssetInqNavigation</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Index of C:\Users\RajDivekar\Downloads\Fixed Assets(2)\Fixed Assets\</t>
   </si>
   <si>
@@ -484,22 +484,28 @@
     <t>12.5 kB</t>
   </si>
   <si>
-    <t>No</t>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>FA10_Script_ManuallyAddAssets_21C.xlsx</t>
+  </si>
+  <si>
+    <t>FA10_TestData_ManuallyAddAssets_21C.xlsx</t>
   </si>
   <si>
     <t>FA_Login_21C.xlsx</t>
   </si>
   <si>
+    <t>FA_Logout_21C.xlsx</t>
+  </si>
+  <si>
+    <t>FA_Navigation_21C.xlsx</t>
+  </si>
+  <si>
     <t>FA_TestData_Login_Logout_21C.xlsx</t>
-  </si>
-  <si>
-    <t>FA10_Script_ManuallyAddAssets_21C.xlsx</t>
-  </si>
-  <si>
-    <t>FA10_TestData_ManuallyAddAssets_21C.xlsx</t>
-  </si>
-  <si>
-    <t>FA_Logout_21C.xlsx</t>
   </si>
   <si>
     <t>FA20_Script_ManageTransactionsAssetInvoices_21C.xlsx</t>
@@ -1253,48 +1259,48 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F55" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="54.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="57.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="54.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="35.54296875" style="3" customWidth="1"/>
-    <col min="22" max="16384" width="8.7265625" style="3"/>
+    <col min="7" max="7" width="11.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="57.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="54.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="35.5546875" style="3" customWidth="1"/>
+    <col min="22" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="25" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" s="25" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>1</v>
@@ -1350,16 +1356,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>18</v>
@@ -1368,7 +1374,7 @@
         <v>19</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>19</v>
@@ -1377,13 +1383,13 @@
         <v>148</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N2" s="17">
         <v>1</v>
@@ -1392,19 +1398,19 @@
         <v>1</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="T2" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -1412,16 +1418,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>18</v>
@@ -1430,7 +1436,7 @@
         <v>19</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>19</v>
@@ -1439,13 +1445,13 @@
         <v>148</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N3" s="4">
         <v>1</v>
@@ -1454,19 +1460,19 @@
         <v>1</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -1474,16 +1480,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>18</v>
@@ -1492,43 +1498,43 @@
         <v>19</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K4" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4">
+        <v>1</v>
+      </c>
+      <c r="P4" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="4">
-        <v>1</v>
-      </c>
-      <c r="O4" s="4">
-        <v>1</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>152</v>
-      </c>
       <c r="Q4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S4" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -1536,16 +1542,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>18</v>
@@ -1554,22 +1560,22 @@
         <v>19</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>153</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N5" s="4">
         <v>1</v>
@@ -1578,19 +1584,19 @@
         <v>1</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S5" s="4" t="s">
         <v>153</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -1598,16 +1604,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>18</v>
@@ -1616,22 +1622,22 @@
         <v>19</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N6" s="4">
         <v>1</v>
@@ -1640,19 +1646,19 @@
         <v>1</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -1660,40 +1666,40 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="I7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>89</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N7" s="4">
         <v>1</v>
@@ -1702,19 +1708,19 @@
         <v>1</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S7" s="4" t="s">
         <v>89</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -1722,13 +1728,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>17</v>
@@ -1746,16 +1752,16 @@
         <v>19</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N8" s="4">
         <v>1</v>
@@ -1764,19 +1770,19 @@
         <v>1</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -1784,16 +1790,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>18</v>
@@ -1802,22 +1808,22 @@
         <v>19</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>153</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N9" s="4">
         <v>1</v>
@@ -1826,19 +1832,19 @@
         <v>1</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S9" s="4" t="s">
         <v>153</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -1846,16 +1852,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>18</v>
@@ -1864,22 +1870,22 @@
         <v>19</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N10" s="4">
         <v>1</v>
@@ -1888,19 +1894,19 @@
         <v>1</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1908,40 +1914,40 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="I11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>89</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N11" s="4">
         <v>1</v>
@@ -1950,19 +1956,19 @@
         <v>1</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S11" s="4" t="s">
         <v>89</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -1970,16 +1976,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>18</v>
@@ -1988,22 +1994,22 @@
         <v>19</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N12" s="4">
         <v>1</v>
@@ -2012,19 +2018,19 @@
         <v>1</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S12" s="19" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -2032,16 +2038,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>18</v>
@@ -2050,22 +2056,22 @@
         <v>19</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>153</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N13" s="4">
         <v>1</v>
@@ -2074,19 +2080,19 @@
         <v>1</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S13" s="4" t="s">
         <v>153</v>
       </c>
       <c r="T13" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -2094,16 +2100,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>18</v>
@@ -2112,22 +2118,22 @@
         <v>19</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N14" s="4">
         <v>1</v>
@@ -2136,19 +2142,19 @@
         <v>1</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="T14" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -2156,16 +2162,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>18</v>
@@ -2174,22 +2180,22 @@
         <v>19</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>85</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N15" s="4">
         <v>1</v>
@@ -2198,19 +2204,19 @@
         <v>1</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S15" s="4" t="s">
         <v>85</v>
       </c>
       <c r="T15" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -2218,16 +2224,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>18</v>
@@ -2236,7 +2242,7 @@
         <v>19</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>19</v>
@@ -2245,13 +2251,13 @@
         <v>148</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N16" s="4">
         <v>1</v>
@@ -2260,19 +2266,19 @@
         <v>1</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S16" s="19" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -2280,16 +2286,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>18</v>
@@ -2298,22 +2304,22 @@
         <v>19</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>153</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N17" s="4">
         <v>1</v>
@@ -2322,19 +2328,19 @@
         <v>1</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S17" s="4" t="s">
         <v>153</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -2342,16 +2348,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>18</v>
@@ -2360,22 +2366,22 @@
         <v>19</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N18" s="4">
         <v>1</v>
@@ -2384,19 +2390,19 @@
         <v>1</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="T18" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -2404,16 +2410,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>18</v>
@@ -2422,22 +2428,22 @@
         <v>19</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>85</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N19" s="4">
         <v>1</v>
@@ -2446,19 +2452,19 @@
         <v>1</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S19" s="4" t="s">
         <v>85</v>
       </c>
       <c r="T19" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2466,16 +2472,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>18</v>
@@ -2484,22 +2490,22 @@
         <v>19</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N20" s="4">
         <v>1</v>
@@ -2508,19 +2514,19 @@
         <v>1</v>
       </c>
       <c r="P20" s="19" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S20" s="19" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="T20" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -2528,16 +2534,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>18</v>
@@ -2546,22 +2552,22 @@
         <v>19</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>153</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N21" s="4">
         <v>1</v>
@@ -2570,19 +2576,19 @@
         <v>1</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S21" s="4" t="s">
         <v>153</v>
       </c>
       <c r="T21" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -2590,16 +2596,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>18</v>
@@ -2608,22 +2614,22 @@
         <v>19</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N22" s="4">
         <v>1</v>
@@ -2632,19 +2638,19 @@
         <v>1</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="T22" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -2652,16 +2658,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>18</v>
@@ -2670,22 +2676,22 @@
         <v>19</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N23" s="4">
         <v>1</v>
@@ -2694,19 +2700,19 @@
         <v>1</v>
       </c>
       <c r="P23" s="19" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S23" s="19" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -2714,16 +2720,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>18</v>
@@ -2732,22 +2738,22 @@
         <v>19</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>153</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N24" s="4">
         <v>1</v>
@@ -2756,19 +2762,19 @@
         <v>1</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S24" s="4" t="s">
         <v>153</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -2776,16 +2782,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>18</v>
@@ -2794,22 +2800,22 @@
         <v>19</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N25" s="4">
         <v>1</v>
@@ -2818,19 +2824,19 @@
         <v>1</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="T25" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -2838,16 +2844,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>18</v>
@@ -2856,22 +2862,22 @@
         <v>19</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>85</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N26" s="4">
         <v>1</v>
@@ -2880,19 +2886,19 @@
         <v>1</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S26" s="4" t="s">
         <v>85</v>
       </c>
       <c r="T26" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -2900,16 +2906,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>18</v>
@@ -2918,22 +2924,22 @@
         <v>19</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N27" s="4">
         <v>1</v>
@@ -2942,19 +2948,19 @@
         <v>1</v>
       </c>
       <c r="P27" s="19" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S27" s="19" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -2962,16 +2968,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>18</v>
@@ -2980,22 +2986,22 @@
         <v>19</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>153</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N28" s="4">
         <v>1</v>
@@ -3004,19 +3010,19 @@
         <v>1</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S28" s="4" t="s">
         <v>153</v>
       </c>
       <c r="T28" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -3024,16 +3030,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>18</v>
@@ -3042,22 +3048,22 @@
         <v>19</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N29" s="4">
         <v>1</v>
@@ -3066,19 +3072,19 @@
         <v>1</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="T29" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -3086,16 +3092,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>18</v>
@@ -3104,22 +3110,22 @@
         <v>19</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>85</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N30" s="4">
         <v>1</v>
@@ -3128,19 +3134,19 @@
         <v>1</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S30" s="4" t="s">
         <v>85</v>
       </c>
       <c r="T30" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -3148,16 +3154,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>18</v>
@@ -3166,22 +3172,22 @@
         <v>19</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N31" s="4">
         <v>1</v>
@@ -3190,19 +3196,19 @@
         <v>1</v>
       </c>
       <c r="P31" s="19" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S31" s="19" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="T31" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -3210,16 +3216,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>18</v>
@@ -3228,22 +3234,22 @@
         <v>19</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>153</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N32" s="4">
         <v>1</v>
@@ -3252,19 +3258,19 @@
         <v>1</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S32" s="4" t="s">
         <v>153</v>
       </c>
       <c r="T32" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -3272,16 +3278,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>18</v>
@@ -3290,22 +3296,22 @@
         <v>19</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N33" s="4">
         <v>1</v>
@@ -3314,19 +3320,19 @@
         <v>1</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S33" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="T33" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -3334,16 +3340,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>18</v>
@@ -3352,22 +3358,22 @@
         <v>19</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>85</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N34" s="4">
         <v>1</v>
@@ -3376,19 +3382,19 @@
         <v>1</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S34" s="4" t="s">
         <v>85</v>
       </c>
       <c r="T34" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -3396,16 +3402,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>18</v>
@@ -3414,22 +3420,22 @@
         <v>19</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N35" s="4">
         <v>1</v>
@@ -3438,19 +3444,19 @@
         <v>1</v>
       </c>
       <c r="P35" s="19" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S35" s="19" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="T35" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
@@ -3458,16 +3464,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>18</v>
@@ -3476,22 +3482,22 @@
         <v>19</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>153</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N36" s="4">
         <v>1</v>
@@ -3500,19 +3506,19 @@
         <v>1</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S36" s="4" t="s">
         <v>153</v>
       </c>
       <c r="T36" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -3520,16 +3526,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>18</v>
@@ -3538,22 +3544,22 @@
         <v>19</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N37" s="4">
         <v>1</v>
@@ -3562,19 +3568,19 @@
         <v>1</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S37" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="T37" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -3582,16 +3588,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>18</v>
@@ -3600,22 +3606,22 @@
         <v>19</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>85</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N38" s="4">
         <v>1</v>
@@ -3624,19 +3630,19 @@
         <v>1</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S38" s="4" t="s">
         <v>85</v>
       </c>
       <c r="T38" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -3644,16 +3650,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>18</v>
@@ -3662,22 +3668,22 @@
         <v>19</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K39" s="19" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N39" s="4">
         <v>1</v>
@@ -3686,19 +3692,19 @@
         <v>1</v>
       </c>
       <c r="P39" s="19" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S39" s="19" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="T39" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -3706,16 +3712,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>18</v>
@@ -3724,22 +3730,22 @@
         <v>19</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>153</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N40" s="4">
         <v>1</v>
@@ -3748,19 +3754,19 @@
         <v>1</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S40" s="4" t="s">
         <v>153</v>
       </c>
       <c r="T40" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -3768,16 +3774,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>18</v>
@@ -3786,22 +3792,22 @@
         <v>19</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N41" s="4">
         <v>1</v>
@@ -3810,19 +3816,19 @@
         <v>1</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="T41" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
@@ -3830,16 +3836,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>18</v>
@@ -3848,22 +3854,22 @@
         <v>19</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>85</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N42" s="4">
         <v>1</v>
@@ -3872,19 +3878,19 @@
         <v>1</v>
       </c>
       <c r="P42" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q42" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R42" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S42" s="4" t="s">
         <v>85</v>
       </c>
       <c r="T42" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
@@ -3892,16 +3898,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>18</v>
@@ -3910,22 +3916,22 @@
         <v>19</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K43" s="19" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N43" s="4">
         <v>1</v>
@@ -3934,19 +3940,19 @@
         <v>1</v>
       </c>
       <c r="P43" s="19" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q43" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R43" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S43" s="19" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="T43" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
@@ -3954,16 +3960,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>18</v>
@@ -3972,22 +3978,22 @@
         <v>19</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>153</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N44" s="4">
         <v>1</v>
@@ -3996,19 +4002,19 @@
         <v>1</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q44" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R44" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S44" s="4" t="s">
         <v>153</v>
       </c>
       <c r="T44" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
@@ -4016,16 +4022,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>18</v>
@@ -4034,22 +4040,22 @@
         <v>19</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N45" s="4">
         <v>1</v>
@@ -4058,19 +4064,19 @@
         <v>1</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q45" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R45" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S45" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="T45" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
@@ -4078,16 +4084,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>18</v>
@@ -4096,22 +4102,22 @@
         <v>19</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K46" s="4" t="s">
         <v>85</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N46" s="4">
         <v>1</v>
@@ -4120,19 +4126,19 @@
         <v>1</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q46" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R46" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S46" s="4" t="s">
         <v>85</v>
       </c>
       <c r="T46" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
@@ -4140,16 +4146,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>18</v>
@@ -4158,22 +4164,22 @@
         <v>19</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K47" s="19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N47" s="4">
         <v>1</v>
@@ -4182,19 +4188,19 @@
         <v>1</v>
       </c>
       <c r="P47" s="19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q47" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S47" s="19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="T47" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
@@ -4202,16 +4208,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>18</v>
@@ -4220,22 +4226,22 @@
         <v>19</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K48" s="4" t="s">
         <v>153</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N48" s="4">
         <v>1</v>
@@ -4244,19 +4250,19 @@
         <v>1</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q48" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S48" s="4" t="s">
         <v>153</v>
       </c>
       <c r="T48" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
@@ -4264,16 +4270,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>18</v>
@@ -4282,22 +4288,22 @@
         <v>19</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N49" s="4">
         <v>1</v>
@@ -4306,19 +4312,19 @@
         <v>1</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q49" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R49" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S49" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="T49" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
@@ -4326,16 +4332,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>18</v>
@@ -4344,22 +4350,22 @@
         <v>19</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K50" s="4" t="s">
         <v>85</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N50" s="4">
         <v>1</v>
@@ -4368,19 +4374,19 @@
         <v>1</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q50" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R50" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S50" s="4" t="s">
         <v>85</v>
       </c>
       <c r="T50" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
@@ -4388,16 +4394,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>18</v>
@@ -4406,22 +4412,22 @@
         <v>19</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N51" s="4">
         <v>1</v>
@@ -4430,19 +4436,19 @@
         <v>1</v>
       </c>
       <c r="P51" s="19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q51" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R51" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="T51" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
@@ -4450,16 +4456,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>18</v>
@@ -4468,22 +4474,22 @@
         <v>19</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K52" s="4" t="s">
         <v>153</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N52" s="4">
         <v>1</v>
@@ -4492,19 +4498,19 @@
         <v>1</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q52" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R52" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S52" s="4" t="s">
         <v>153</v>
       </c>
       <c r="T52" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
@@ -4512,16 +4518,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>18</v>
@@ -4530,22 +4536,22 @@
         <v>19</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N53" s="4">
         <v>1</v>
@@ -4554,19 +4560,19 @@
         <v>1</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q53" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R53" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S53" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="T53" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
@@ -4574,16 +4580,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>18</v>
@@ -4592,22 +4598,22 @@
         <v>19</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K54" s="4" t="s">
         <v>87</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N54" s="4">
         <v>1</v>
@@ -4616,19 +4622,19 @@
         <v>1</v>
       </c>
       <c r="P54" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q54" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R54" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S54" s="4" t="s">
         <v>87</v>
       </c>
       <c r="T54" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
@@ -4636,16 +4642,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>18</v>
@@ -4654,22 +4660,22 @@
         <v>19</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K55" s="19" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N55" s="4">
         <v>1</v>
@@ -4678,19 +4684,19 @@
         <v>1</v>
       </c>
       <c r="P55" s="19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q55" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R55" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S55" s="19" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="T55" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
@@ -4698,16 +4704,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>18</v>
@@ -4716,22 +4722,22 @@
         <v>19</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K56" s="4" t="s">
         <v>153</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N56" s="4">
         <v>1</v>
@@ -4740,19 +4746,19 @@
         <v>1</v>
       </c>
       <c r="P56" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q56" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R56" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S56" s="4" t="s">
         <v>153</v>
       </c>
       <c r="T56" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
@@ -4760,16 +4766,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>18</v>
@@ -4778,22 +4784,22 @@
         <v>19</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N57" s="4">
         <v>1</v>
@@ -4802,19 +4808,19 @@
         <v>1</v>
       </c>
       <c r="P57" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q57" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R57" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S57" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="T57" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
@@ -4822,16 +4828,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>18</v>
@@ -4840,22 +4846,22 @@
         <v>19</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K58" s="4" t="s">
         <v>87</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N58" s="4">
         <v>1</v>
@@ -4864,19 +4870,19 @@
         <v>1</v>
       </c>
       <c r="P58" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q58" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R58" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S58" s="4" t="s">
         <v>87</v>
       </c>
       <c r="T58" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
@@ -4884,16 +4890,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>18</v>
@@ -4902,22 +4908,22 @@
         <v>19</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N59" s="4">
         <v>1</v>
@@ -4926,19 +4932,19 @@
         <v>1</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q59" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R59" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="T59" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
@@ -4946,16 +4952,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>18</v>
@@ -4964,22 +4970,22 @@
         <v>19</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I60" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="K60" s="4" t="s">
         <v>153</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N60" s="4">
         <v>1</v>
@@ -4988,19 +4994,19 @@
         <v>1</v>
       </c>
       <c r="P60" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q60" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R60" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S60" s="4" t="s">
         <v>153</v>
       </c>
       <c r="T60" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
@@ -5008,16 +5014,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>18</v>
@@ -5026,22 +5032,22 @@
         <v>19</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N61" s="4">
         <v>1</v>
@@ -5050,19 +5056,19 @@
         <v>1</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q61" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R61" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S61" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="T61" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
@@ -5070,16 +5076,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>18</v>
@@ -5088,22 +5094,22 @@
         <v>19</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="K62" s="4" t="s">
         <v>85</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N62" s="4">
         <v>1</v>
@@ -5112,19 +5118,19 @@
         <v>1</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q62" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R62" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S62" s="4" t="s">
         <v>85</v>
       </c>
       <c r="T62" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
@@ -5132,16 +5138,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>18</v>
@@ -5150,22 +5156,22 @@
         <v>19</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N63" s="4">
         <v>1</v>
@@ -5174,19 +5180,19 @@
         <v>1</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q63" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R63" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="T63" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
@@ -5194,16 +5200,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>18</v>
@@ -5212,22 +5218,22 @@
         <v>19</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="K64" s="4" t="s">
         <v>153</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N64" s="4">
         <v>1</v>
@@ -5236,19 +5242,19 @@
         <v>1</v>
       </c>
       <c r="P64" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q64" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R64" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S64" s="4" t="s">
         <v>153</v>
       </c>
       <c r="T64" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
@@ -5256,16 +5262,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>18</v>
@@ -5274,22 +5280,22 @@
         <v>19</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N65" s="4">
         <v>1</v>
@@ -5298,19 +5304,19 @@
         <v>1</v>
       </c>
       <c r="P65" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q65" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R65" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S65" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="T65" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
@@ -5318,16 +5324,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>18</v>
@@ -5336,22 +5342,22 @@
         <v>19</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I66" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="K66" s="19" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N66" s="4">
         <v>1</v>
@@ -5360,19 +5366,19 @@
         <v>1</v>
       </c>
       <c r="P66" s="19" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q66" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R66" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S66" s="19" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="T66" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
@@ -5380,16 +5386,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>18</v>
@@ -5398,22 +5404,22 @@
         <v>19</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I67" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="K67" s="4" t="s">
         <v>153</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N67" s="4">
         <v>1</v>
@@ -5422,19 +5428,19 @@
         <v>1</v>
       </c>
       <c r="P67" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q67" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R67" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S67" s="4" t="s">
         <v>153</v>
       </c>
       <c r="T67" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
@@ -5442,16 +5448,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>18</v>
@@ -5460,22 +5466,22 @@
         <v>19</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N68" s="4">
         <v>1</v>
@@ -5484,19 +5490,19 @@
         <v>1</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q68" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R68" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S68" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="T68" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
@@ -5504,16 +5510,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>18</v>
@@ -5522,22 +5528,22 @@
         <v>19</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="K69" s="19" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N69" s="4">
         <v>1</v>
@@ -5546,36 +5552,36 @@
         <v>1</v>
       </c>
       <c r="P69" s="19" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q69" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R69" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S69" s="19" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="T69" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9">
         <v>69</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F70" s="12" t="s">
         <v>18</v>
@@ -5584,22 +5590,22 @@
         <v>19</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I70" s="12" t="s">
         <v>19</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="K70" s="12" t="s">
         <v>153</v>
       </c>
       <c r="L70" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M70" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N70" s="12">
         <v>1</v>
@@ -5608,19 +5614,19 @@
         <v>1</v>
       </c>
       <c r="P70" s="12" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q70" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R70" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S70" s="12" t="s">
         <v>153</v>
       </c>
       <c r="T70" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -5640,24 +5646,24 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="61" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -5668,7 +5674,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -5679,7 +5685,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -5690,7 +5696,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -5701,7 +5707,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -5712,7 +5718,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>87</v>
       </c>
@@ -5723,7 +5729,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -5734,7 +5740,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -5745,7 +5751,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -5756,7 +5762,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -5767,7 +5773,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>99</v>
       </c>
@@ -5778,7 +5784,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -5789,7 +5795,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -5800,7 +5806,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>105</v>
       </c>
@@ -5811,7 +5817,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>107</v>
       </c>
@@ -5822,7 +5828,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>109</v>
       </c>
@@ -5833,7 +5839,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -5844,7 +5850,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>112</v>
       </c>
@@ -5855,7 +5861,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>114</v>
       </c>
@@ -5866,7 +5872,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>116</v>
       </c>
@@ -5877,7 +5883,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>118</v>
       </c>
@@ -5888,7 +5894,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>120</v>
       </c>
@@ -5899,7 +5905,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>122</v>
       </c>
@@ -5910,7 +5916,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>124</v>
       </c>
@@ -5921,7 +5927,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>126</v>
       </c>
@@ -5932,7 +5938,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>127</v>
       </c>
@@ -5943,7 +5949,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>129</v>
       </c>
@@ -5954,7 +5960,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>131</v>
       </c>
@@ -5965,7 +5971,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>132</v>
       </c>
@@ -5976,7 +5982,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>134</v>
       </c>
@@ -5987,7 +5993,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>135</v>
       </c>
@@ -5998,7 +6004,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>137</v>
       </c>
@@ -6009,7 +6015,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>138</v>
       </c>
@@ -6020,7 +6026,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>140</v>
       </c>
@@ -6031,7 +6037,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -6042,7 +6048,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>144</v>
       </c>
@@ -6053,7 +6059,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>146</v>
       </c>
